--- a/colorbreakdownanalysis.xlsx
+++ b/colorbreakdownanalysis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/346c636219931f15/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/346c636219931f15/Documents/GitHub/Final-project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{3BEB04D3-B5EE-46DE-9394-4C30662B4F51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:40009_{3BEB04D3-B5EE-46DE-9394-4C30662B4F51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C42BD93D-81CB-403E-AE9D-E2D0A1292F95}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="colorscount" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
   <si>
     <t>..-M</t>
   </si>
@@ -215,12 +215,39 @@
   </si>
   <si>
     <t>YW</t>
+  </si>
+  <si>
+    <t>Black</t>
+  </si>
+  <si>
+    <t>Blue</t>
+  </si>
+  <si>
+    <t>Brown</t>
+  </si>
+  <si>
+    <t>Burgundy</t>
+  </si>
+  <si>
+    <t>Red</t>
+  </si>
+  <si>
+    <t>Green</t>
+  </si>
+  <si>
+    <t>Gold</t>
+  </si>
+  <si>
+    <t>Silver</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grey </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1174,34 +1201,61 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B91"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:N91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="A88" sqref="A88"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K1" t="s">
+        <v>70</v>
+      </c>
+      <c r="L1" t="s">
+        <v>71</v>
+      </c>
+      <c r="M1" t="s">
+        <v>72</v>
+      </c>
+      <c r="N1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B2">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>1</v>
       </c>
@@ -1209,7 +1263,7 @@
         <v>49977</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>2</v>
       </c>
@@ -1217,22 +1271,22 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>3</v>
       </c>
@@ -1240,7 +1294,7 @@
         <v>20065</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>4</v>
       </c>
@@ -1248,7 +1302,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>5</v>
       </c>
@@ -1256,17 +1310,17 @@
         <v>28137</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>6</v>
       </c>
@@ -1274,7 +1328,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>7</v>
       </c>
@@ -1282,7 +1336,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>8</v>
       </c>

--- a/colorbreakdownanalysis.xlsx
+++ b/colorbreakdownanalysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/346c636219931f15/Documents/GitHub/Final-project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:40009_{3BEB04D3-B5EE-46DE-9394-4C30662B4F51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C42BD93D-81CB-403E-AE9D-E2D0A1292F95}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="13_ncr:40009_{3BEB04D3-B5EE-46DE-9394-4C30662B4F51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{240A5944-FEAA-4183-8697-205429FC7BD3}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
   <si>
     <t>..-M</t>
   </si>
@@ -242,6 +242,18 @@
   </si>
   <si>
     <t xml:space="preserve">Grey </t>
+  </si>
+  <si>
+    <t>LT</t>
+  </si>
+  <si>
+    <t>LTG</t>
+  </si>
+  <si>
+    <t>LTT</t>
+  </si>
+  <si>
+    <t>LAVEN</t>
   </si>
 </sst>
 </file>
@@ -384,7 +396,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="49">
+  <fills count="50">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -657,6 +669,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0066"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -821,7 +839,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
@@ -840,6 +858,7 @@
     <xf numFmtId="0" fontId="0" fillId="47" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="48" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="43" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1204,8 +1223,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="H50" sqref="H50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1575,11 +1594,17 @@
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="4" t="s">
+        <v>77</v>
+      </c>
       <c r="B48">
         <v>37</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="18" t="s">
+        <v>74</v>
+      </c>
       <c r="B49">
         <v>430</v>
       </c>
@@ -1590,11 +1615,17 @@
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="8" t="s">
+        <v>75</v>
+      </c>
       <c r="B51">
         <v>531</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>76</v>
+      </c>
       <c r="B52">
         <v>17</v>
       </c>

--- a/colorbreakdownanalysis.xlsx
+++ b/colorbreakdownanalysis.xlsx
@@ -5,22 +5,33 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/346c636219931f15/Documents/GitHub/Final-project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/346c636219931f15/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="13_ncr:40009_{3BEB04D3-B5EE-46DE-9394-4C30662B4F51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{240A5944-FEAA-4183-8697-205429FC7BD3}"/>
+  <xr:revisionPtr revIDLastSave="27" documentId="8_{470E2BF7-DF1B-49F2-B2EF-3484177A74DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F6AD5ABA-605B-4EF0-A978-FF4854656BDD}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="colorscount" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
   <si>
     <t>..-M</t>
   </si>
@@ -241,9 +252,6 @@
     <t>Silver</t>
   </si>
   <si>
-    <t xml:space="preserve">Grey </t>
-  </si>
-  <si>
     <t>LT</t>
   </si>
   <si>
@@ -254,6 +262,27 @@
   </si>
   <si>
     <t>LAVEN</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Purple</t>
+  </si>
+  <si>
+    <t>Pink</t>
+  </si>
+  <si>
+    <t>Dark</t>
+  </si>
+  <si>
+    <t>Light</t>
+  </si>
+  <si>
+    <t>Gray</t>
+  </si>
+  <si>
+    <t>White</t>
   </si>
 </sst>
 </file>
@@ -1221,15 +1250,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N91"/>
+  <dimension ref="A1:T91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="H50" sqref="H50"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="T3" sqref="T3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1258,23 +1287,99 @@
         <v>71</v>
       </c>
       <c r="M1" t="s">
+        <v>82</v>
+      </c>
+      <c r="N1" t="s">
         <v>72</v>
       </c>
-      <c r="N1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O1" t="s">
+        <v>78</v>
+      </c>
+      <c r="P1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>83</v>
+      </c>
+      <c r="R1" t="s">
+        <v>77</v>
+      </c>
+      <c r="S1" t="s">
+        <v>80</v>
+      </c>
+      <c r="T1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B2">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F2">
+        <f>SUM(B4+B5+B9+B10+B11+B14)</f>
+        <v>98291</v>
+      </c>
+      <c r="G2">
+        <f>SUM(B18+B19+B20+B21+B26)</f>
+        <v>15744</v>
+      </c>
+      <c r="H2">
+        <f>SUM(B23+B53+B54+B55)</f>
+        <v>1161</v>
+      </c>
+      <c r="I2">
+        <f>SUM(B15+B16+B22)</f>
+        <v>9836</v>
+      </c>
+      <c r="J2">
+        <f>SUM(B30+B65+B66+B69)</f>
+        <v>19419</v>
+      </c>
+      <c r="K2">
+        <f>SUM(B27+B36+B37+B39+B40)</f>
+        <v>6524</v>
+      </c>
+      <c r="L2">
+        <f>SUM(B32+B34+B35)</f>
+        <v>2443</v>
+      </c>
+      <c r="M2">
+        <f>SUM(B38+B41+B43+B44+B45+B46)</f>
+        <v>77618</v>
+      </c>
+      <c r="N2">
+        <f>SUM(B70+B71+B72+B73+B74+B75)</f>
+        <v>11291</v>
+      </c>
+      <c r="O2">
+        <f>SUM(B48+B62+B63+B64)</f>
+        <v>427</v>
+      </c>
+      <c r="P2">
+        <v>2</v>
+      </c>
+      <c r="Q2">
+        <f>SUM(B79+B80+B83+B84+B86+B87+B88)</f>
+        <v>112729</v>
+      </c>
+      <c r="R2">
+        <f>SUM(B1+B2+B3+B6+B7+B8+B12+B13+B17+B24+B31+B33+B42+B47+B50+B56+B57+B60+B67+B68+B78+B81+B82+B85)</f>
+        <v>3204</v>
+      </c>
+      <c r="S2">
+        <v>334</v>
+      </c>
+      <c r="T2">
+        <f>SUM(B49+B52)</f>
+        <v>447</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>1</v>
       </c>
@@ -1282,7 +1387,7 @@
         <v>49977</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>2</v>
       </c>
@@ -1290,22 +1395,22 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>3</v>
       </c>
@@ -1313,7 +1418,7 @@
         <v>20065</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>4</v>
       </c>
@@ -1321,7 +1426,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>5</v>
       </c>
@@ -1329,17 +1434,17 @@
         <v>28137</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>6</v>
       </c>
@@ -1347,7 +1452,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>7</v>
       </c>
@@ -1355,7 +1460,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>8</v>
       </c>
@@ -1595,7 +1700,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B48">
         <v>37</v>
@@ -1603,7 +1708,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B49">
         <v>430</v>
@@ -1616,7 +1721,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B51">
         <v>531</v>
@@ -1624,7 +1729,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B52">
         <v>17</v>
